--- a/data/demographics.xlsx
+++ b/data/demographics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pssst/Documents/UO/Terms/Fall 2018/EDLD 610 R/new_project/new_porject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B5C330-AEAD-6946-862B-64468CC1E116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C2D4EF-AF06-314A-848E-0DEFDFC06F6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="2560" windowWidth="28040" windowHeight="17040" xr2:uid="{B49EDAEE-592A-964D-AEE3-83CE8AC062AA}"/>
+    <workbookView xWindow="760" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{B49EDAEE-592A-964D-AEE3-83CE8AC062AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>NS1</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>NNS6</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Height</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -445,15 +445,15 @@
     <row r="1" spans="1:3" ht="17">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>163</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="3" spans="1:3" ht="17">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>164</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="4" spans="1:3" ht="17">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>165</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>168</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>162</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>167</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="8" spans="1:3" ht="17">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>170</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>163</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="10" spans="1:3" ht="17">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>172</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>166</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>160</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>166</v>
